--- a/biology/Botanique/Myricaceae/Myricaceae.xlsx
+++ b/biology/Botanique/Myricaceae/Myricaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Myricaceae, ou myricacées en français, regroupe des plantes dicotylédones ; elle comprend 40 espèces réparties en 4 genres. 
 Ce sont des arbres ou des arbustes, certains à feuilles persistantes, largement répandus sauf en Afrique du Nord.
@@ -521,10 +533,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom vient du genre type  Myrica dérivé de l’ancien grec μυρίκη / myrike, tamaris, lui-même dérivé de μύρωμα / myroma, huile parfumée, parfum, en référence aux arômes dégagés par les feuilles de la plante.
-Noms vernaculaires
-Le Myrica gale est affublé de nombreux noms vernaculaires : « myrique baumier », « myrte des marais », « myrte du brabant » ou encore en Amérique du Nord francophone « piment royal », « bois-sent-bon », « myrte bâtard », « lorette », « galé odorant », « piment aquatique », etc.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type  Myrica dérivé de l’ancien grec μυρίκη / myrike, tamaris, lui-même dérivé de μύρωμα / myroma, huile parfumée, parfum, en référence aux arômes dégagés par les feuilles de la plante.
 </t>
         </is>
       </c>
@@ -550,13 +565,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Désignation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Classification de Cronquist cette famille fait partie de l'ordre des Myricales.
-La classification phylogénétique a supprimé cet ordre et place cette famille dans celui des Fagales.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Myrica gale est affublé de nombreux noms vernaculaires : « myrique baumier », « myrte des marais », « myrte du brabant » ou encore en Amérique du Nord francophone « piment royal », « bois-sent-bon », « myrte bâtard », « lorette », « galé odorant », « piment aquatique », etc.
 </t>
         </is>
       </c>
@@ -582,26 +602,62 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Classification de Cronquist cette famille fait partie de l'ordre des Myricales.
+La classification phylogénétique a supprimé cet ordre et place cette famille dans celui des Fagales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Myricaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myricaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (30 mai 2010)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (30 mai 2010) :
 Canacomyrica
 Comptonia
 Myrica
-Selon NCBI  (30 mai 2010)[2] :
+Selon NCBI  (30 mai 2010) :
 Canacomyrica
 Comptonia
 Morella
 Myrica
-Selon DELTA Angio           (30 mai 2010)[3] :
+Selon DELTA Angio           (30 mai 2010) :
 Canacomyrica
 Comptonia
 Gale
 Myrica
-Selon ITIS      (30 mai 2010)[4] :
+Selon ITIS      (30 mai 2010) :
 Comptonia L'Hér. ex Ait.
 Gale
 Morella Lour.
@@ -609,33 +665,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Myricaceae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Myricaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 mai 2010)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 mai 2010) :
 genre Canacomyrica
 Canacomyrica monticola
 genre Comptonia
